--- a/generate_cp/json_output/summary_dataframe.xlsx
+++ b/generate_cp/json_output/summary_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,45 +483,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Theory</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LO1: Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition. (K1, A1, K2, A2)</t>
+          <t>LO1: Implement generative models using deep learning algorithms and analyse their suitability for different problem requirements. (K1, K9, A1, K10, A2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>- T1: Introduction to Copilot for Microsoft 365
-- T1: Introduction to Copilot for Microsoft 365
-- T2: Explore the possibilities with Copilot for Microsoft 365
-- T2: Explore the possibilities with Copilot for Microsoft 365
-- T3: Optimize and extend Copilot for Microsoft 365
-- T3: Optimize and extend Copilot for Microsoft 365</t>
+          <t>- T1: Fundamentals of Probability and Deep Learning
+- T1: Fundamentals of Probability and Deep Learning
+- T1: Fundamentals of Probability and Deep Learning
+- T2: Machine Learning Implementation
+- T2: Machine Learning Implementation</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>- Lecture (Classroom Facilitated Training: 55)
-- Peer Sharing (Classroom Facilitated Training: 55)
-- Group Discussion (Classroom Facilitated Training: 55)
-- Case Study (Classroom Facilitated Training: 55)</t>
+          <t>- Interactive Presentation (14 hrs) (Classroom Facilitated Training: 110)
+- Demonstration (Classroom Facilitated Training: 110)
+- Practical (Classroom Facilitated Training: 110)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>- Written Exam (1:20, 5)
-- Others: Case Study (1:20, 5)
 - Written Exam (1:20, 5)
-- Others: Case Study (1:20, 5)</t>
+- Practical Exam (1:20, 5)
+- Written Exam (1:20, 5)
+- Practical Exam (1:20, 5)</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -532,47 +531,134 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Data Preparation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LO2: Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes. (K3, A4, K4, A3)</t>
+          <t>LO2: Preprocess and transform generative datasets using embeddings and tokenisation for model readiness. (K2, K7, A5, K8)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>- T4: Summarize with Microsoft Copilot for Microsoft 365
-- T4: Summarize with Microsoft Copilot for Microsoft 365
-- T5: Create and draft with Microsoft Copilot for Microsoft 365
-- T5: Create and draft with Microsoft Copilot for Microsoft 365
-- T6: Edit and transform content with Microsoft Copilot for Microsoft 365
-- T6: Edit and transform content with Microsoft Copilot for Microsoft 365
-- T7: Ask questions and analyze content with Microsoft Copilot for Microsoft 365
-- T7: Ask questions and analyze content with Microsoft Copilot for Microsoft 365</t>
+          <t>- T1: Data Processing and Evaluation
+- T1: Data Processing and Evaluation
+- T1: Data Processing and Evaluation
+- T2: Data Transformation
+- T2: Data Transformation</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>- Lecture (Classroom Facilitated Training: 50)
-- Peer Sharing (Classroom Facilitated Training: 50)
-- Group Discussion (Classroom Facilitated Training: 50)
-- Case Study (Classroom Facilitated Training: 50)</t>
+          <t>- Interactive Presentation (14 hrs) (Classroom Facilitated Training: 110)
+- Demonstration (Classroom Facilitated Training: 110)
+- Practical (Classroom Facilitated Training: 110)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>- Written Exam (1:20, 5)
+- Written Exam (1:20, 10)
+- Practical Exam (1:20, 10)
+- Written Exam (1:20, 10)</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LU3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Generative AI Model Training</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LO3: Train generative AI models with neural optimisation techniques using benchmark datasets and performance metrics. (K4, K5, A3, K6)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>- T1: Neural Network Training
+- T1: Neural Network Training
+- T1: Neural Network Training
+- T2: Model Evaluation
+- T2: Model Evaluation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>- Interactive Presentation (14 hrs) (Classroom Facilitated Training: 110)
+- Demonstration (Classroom Facilitated Training: 110)
+- Practical (Classroom Facilitated Training: 110)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>330</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>- Written Exam (1:20, 10)
-- Others: Case Study (1:20, 10)
 - Written Exam (1:20, 10)
-- Others: Case Study (1:20, 10)</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+- Practical Exam (1:20, 10)
+- Written Exam (1:20, 10)</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Generative AI Model Fine Tuning</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LO4: Identify model weaknesses through evaluation and propose targeted fine-tuning strategies for improvement. (K3, A4)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>- T1: Fine-tuning Strategies
+- T1: Fine-tuning Strategies
+- T2: Model Improvement
+- T2: Model Improvement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>- Interactive Presentation (14 hrs) (Classroom Facilitated Training: 110)
+- Demonstration (Classroom Facilitated Training: 110)
+- Practical (Classroom Facilitated Training: 110)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>330</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>- Written Exam (1:20, 10)
+- Practical Exam (1:20, 10)</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
